--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1317728.843992372</v>
+        <v>1295366.812581717</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2083705.798332966</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3522967.675855584</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10189943.19389979</v>
+        <v>11248921.90017855</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>186.8185428348316</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>48.91401559658188</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>402.0386574955018</v>
+        <v>399.5646059586872</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>22.98569063694824</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>140.4147025184292</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>81.12200652863734</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,19 +1302,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>48.97699675700473</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.54110646053103</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938906</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.31282100400679</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183531</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="C13" t="n">
-        <v>88.86957797204671</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,16 +1542,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176918</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>289.4870342042421</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938906</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664349</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958679</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183532</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.6958418817692</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.102408160176974</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>67.08991894886634</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>80.83119524460984</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>127.5668126389826</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>131.3398926815351</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274077</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.30026924195955</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>116.1580367970455</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>17.93106827885163</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>113.1578721736026</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>33.35146980185854</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>225.206479807409</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.34190763938388</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.6864005999555</v>
+        <v>15.59458547084342</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>76.5910067891963</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>105.8582195010261</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.304160219349</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4327,16 +4327,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2508.443492195161</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2508.443492195161</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2508.443492195161</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2508.443492195161</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2508.443492195161</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2118.304160219349</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064347</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064347</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064347</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1198.22326060983</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C5" t="n">
-        <v>1198.22326060983</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="D5" t="n">
-        <v>1198.22326060983</v>
+        <v>1330.938043216202</v>
       </c>
       <c r="E5" t="n">
-        <v>1198.22326060983</v>
+        <v>945.1497906179575</v>
       </c>
       <c r="F5" t="n">
-        <v>787.2373558202221</v>
+        <v>938.204289868754</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.823100673951</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4643,10 +4643,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>550.798971477663</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>403.9090239797526</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>234.9092237180851</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>77.1608511506152</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>77.1608511506152</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>781.1711973675267</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C8" t="n">
-        <v>412.2086804271149</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D8" t="n">
-        <v>53.94298182036445</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036445</v>
+        <v>202.721515416466</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>195.7760146672626</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,10 +4804,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2615.207670282225</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2284.144782938654</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1931.37612766854</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1557.91036940746</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1167.771037431648</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4886,40 +4886,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837987</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F10" t="n">
-        <v>261.1630682837987</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G10" t="n">
-        <v>261.1630682837987</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H10" t="n">
-        <v>103.4146957163288</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1725.769820105425</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>1725.769820105425</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1725.769820105425</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1339.981567507181</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>928.9956627175731</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>511.9078809540005</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>193.68476572651</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403561</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604006</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.629876389909</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216831</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>3641.698017943139</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>3426.898156210851</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>3173.206452956002</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>2842.143565612431</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>2489.374910342317</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>2115.909152081237</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>1725.769820105425</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>73.9917951266205</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>209.2154943965369</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>346.4450924122301</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>986.990441879334</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1660.196134132116</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2209.632142884838</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2633.599911365674</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1073.926476585963</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C13" t="n">
-        <v>984.1592261091479</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>834.0425866968121</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>686.129493114419</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>539.2395456165086</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>370.6327006118921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>216.3780575116571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>91.86638288598331</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230479</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422854</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783893</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669878</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1073.926476585963</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1073.926476585963</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>1073.926476585963</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>1073.926476585963</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>1073.926476585963</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1240.846680926016</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>871.8841639856048</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>579.4730183247542</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>193.68476572651</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>193.68476572651</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>193.68476572651</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>193.68476572651</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403561</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216831</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.374718827853</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>3328.574857095564</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>3074.883153840715</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>2743.820266497144</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>2391.05161122703</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>2017.58585296595</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>1627.446520990138</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835158</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>522.0794512893251</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>1002.94122423782</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1643.486573704924</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>1842.143315357588</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026347</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.86638288598333</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>91.86638288598333</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>91.86638288598333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>91.86638288598333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>91.86638288598333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>91.86638288598333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>91.86638288598333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>91.86638288598333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>175.0397247222299</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230478</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422853</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783891</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669875</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1068.77252894942</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>861.3322442018255</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>635.7030475141904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>346.5508710918702</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>91.86638288598333</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>91.86638288598333</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X16" t="n">
-        <v>91.86638288598333</v>
+        <v>665.685973528613</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.86638288598333</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5536,28 +5536,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0280401273991</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>554.6108700904385</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>425.7555037884359</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>425.7555037884359</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,31 +5770,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5968,34 +5968,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,31 +6007,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1275.130855347408</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1047.141304449391</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>1047.141304449391</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,22 +6211,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6268,10 +6268,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>414.0663679705859</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>414.0663679705859</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>414.0663679705859</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>414.0663679705859</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,43 +6457,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6502,13 +6502,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372321</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3484.747546292011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>4289.159124556161</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774858</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557068</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014291</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6657,16 +6657,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>1480.804080377244</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>1191.386910340284</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557902</v>
+        <v>963.3973594422661</v>
       </c>
       <c r="Y31" t="n">
-        <v>1322.84934122136</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6727,25 +6727,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3492.843747251885</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C34" t="n">
-        <v>3492.843747251885</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D34" t="n">
-        <v>3492.843747251885</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.859459491669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281175</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4036.945405494733</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>3782.260917288846</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>3492.843747251885</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X34" t="n">
-        <v>3492.843747251885</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y34" t="n">
-        <v>3492.843747251885</v>
+        <v>506.3210135240263</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
@@ -6958,7 +6958,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3606.045341414586</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>3606.045341414586</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>3606.045341414586</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E37" t="n">
-        <v>3606.045341414586</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>4571.72593422785</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>4344.244641493094</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>4054.827471456133</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>3826.837920558116</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>3606.045341414586</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7195,7 +7195,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>1387.841167119728</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>1387.841167119728</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>1387.841167119728</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>1322.84934122136</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="41">
@@ -7411,7 +7411,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>2649.889045452863</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>2896.654173359327</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>3203.974306639288</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>3765.904468744134</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>4045.444533962831</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.2482765610114</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609664</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>986.0022165609664</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>986.0022165609664</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>986.0022165609664</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>841.7907383782456</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C46" t="n">
-        <v>672.8545554503387</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D46" t="n">
-        <v>522.7379160380029</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>522.7379160380029</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>522.7379160380029</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>354.5625943578235</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>204.1445859057668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W46" t="n">
-        <v>1244.231782352015</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X46" t="n">
-        <v>1244.231782352015</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y46" t="n">
-        <v>1023.439203208485</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747115</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928696</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>68.29886828945442</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>347.1032070028303</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>234.4116509503174</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>171.2966883299262</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>73.53204524670059</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>85.30006332127834</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>234.4116509503158</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>29.62977752282617</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22716,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>96.50703242634935</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22725,10 +22725,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>11.74551252529318</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>56.01837628787166</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23029,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>170.102160979652</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23190,19 +23190,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>85.9886250353335</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.34006612413353</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>57.51827062200606</v>
       </c>
       <c r="C13" t="n">
-        <v>78.37724312658112</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>65.19600741644086</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>124.0707735076145</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>151.4947344032284</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>117.0896147389934</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>98.14284275005458</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>17.27558033667728</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.5317109399778</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,19 +24414,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>170.3649615395456</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>234.2065750449764</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>66.6741080083347</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>113.0824928447106</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25365,13 +25365,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>26.93116351641896</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>48.00368395686547</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,19 +25605,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.2427457127109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.14557958198182</v>
+        <v>164.2373947110939</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,19 +25839,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>103.240973392741</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>4.561025963245854</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>720539.9926437238</v>
+        <v>1011823.852443046</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>720539.9926437238</v>
+        <v>1011823.852443046</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>720539.9926437238</v>
+        <v>1011823.852443046</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834666.8331522864</v>
+        <v>959856.5572667964</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834666.8331522862</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>959856.5572667964</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667964</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>371509.2212626557</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="F2" t="n">
-        <v>371509.2212626557</v>
+        <v>430131.9657114795</v>
       </c>
       <c r="G2" t="n">
         <v>430131.9657114797</v>
@@ -26340,19 +26340,19 @@
         <v>430131.9657114797</v>
       </c>
       <c r="K2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="L2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="N2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="O2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="P2" t="n">
         <v>430131.9657114798</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145448</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188426</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659105</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965298</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991125</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27086.83710496504</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="C4" t="n">
-        <v>27086.83710496504</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>27086.83710496504</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>24740.78594361633</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>24740.78594361633</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26444,7 +26444,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26469,34 +26469,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871661</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-381845.9233655859</v>
+        <v>-386886.8516391221</v>
       </c>
       <c r="C6" t="n">
-        <v>208121.9558489589</v>
+        <v>203081.0275754222</v>
       </c>
       <c r="D6" t="n">
-        <v>208121.9558489588</v>
+        <v>203081.0275754222</v>
       </c>
       <c r="E6" t="n">
-        <v>29450.12341659547</v>
+        <v>-210164.5955607254</v>
       </c>
       <c r="F6" t="n">
-        <v>277596.892035438</v>
+        <v>314995.4409161705</v>
       </c>
       <c r="G6" t="n">
-        <v>52207.14290998191</v>
+        <v>314995.4409161707</v>
       </c>
       <c r="H6" t="n">
-        <v>315970.0321758924</v>
+        <v>314995.4409161708</v>
       </c>
       <c r="I6" t="n">
-        <v>315970.0321758923</v>
+        <v>314995.4409161707</v>
       </c>
       <c r="J6" t="n">
-        <v>139546.8129832994</v>
+        <v>138572.2217235777</v>
       </c>
       <c r="K6" t="n">
-        <v>315970.0321758924</v>
+        <v>314995.4409161708</v>
       </c>
       <c r="L6" t="n">
-        <v>315970.0321758924</v>
+        <v>314995.4409161708</v>
       </c>
       <c r="M6" t="n">
-        <v>253516.9762862395</v>
+        <v>180194.4256823336</v>
       </c>
       <c r="N6" t="n">
-        <v>315970.0321758924</v>
+        <v>314995.4409161708</v>
       </c>
       <c r="O6" t="n">
-        <v>246105.1473259811</v>
+        <v>314995.4409161708</v>
       </c>
       <c r="P6" t="n">
-        <v>315970.0321758924</v>
+        <v>314995.4409161708</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380635</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380634</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209768</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160368</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282006</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282009</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282006</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>85.98948845797264</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>14.21956406210779</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>22.21426855158876</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>273.3694675023659</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31044,46 +31044,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31220,28 +31220,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651536</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712521</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359659</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822508</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182829</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842445</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900644</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671567</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080783</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308303</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206991</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784122</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490359</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676922</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441087</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714133</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104759</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937805</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522782</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198243</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651535</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779012</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>376.502430971252</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074812</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359658</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822507</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426691</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457569</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810501</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916531</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182829</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512814</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842445</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900643</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947068</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671567</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080781</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308302</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897126</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>9.51507583820699</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784121</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490358</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790237</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676922</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441086</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714133</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104756</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937804</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522781</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390793</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040855</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517153</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730411</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513591</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233095</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>136.5895952221377</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>138.6157555714073</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122261</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>680.0057497502846</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.96660727472377</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353202</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.545352539127</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040854</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517152</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>638.098798973041</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513591</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233093</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588822</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312121</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584801</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452619</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>485.7189625742375</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>647.015504512226</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N15" t="n">
-        <v>200.663375406731</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>161.1235481502624</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927636</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105728</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>186.699994849311</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233372</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369851</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353173</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382566</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
@@ -36208,22 +36208,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>378.3901032614508</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36448,19 +36448,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>280.6254601782252</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,7 +36682,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>334.5577682773026</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>567.6062243483286</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1295366.812581717</v>
+        <v>1313482.526123279</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2083705.798332965</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>3522967.67585558</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11248921.90017855</v>
+        <v>10189943.19389979</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>295.9408816142891</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>6.005496868168457</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498675</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>101.780687729549</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>69.95103447287302</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>399.5646059586872</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>59.01177817175172</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>47.14167849255911</v>
       </c>
       <c r="J7" t="n">
-        <v>22.98569063694824</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>60.13762523942749</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>140.4147025184292</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.54110646053103</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>158.343721026685</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>80.47116108643392</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.3137095599312</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>9.579478589972078</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>144.1290102524679</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>87.40899964379329</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.08991894886634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113147</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>80.83119524460984</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002174</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>20.50993243674152</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>27.37255160319408</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>17.93106827885163</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>113.1578721736026</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>46.18466773628226</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.59458547084342</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>109.4779828373166</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>76.5910067891963</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1198.22326060983</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>829.2607436694179</v>
       </c>
       <c r="D2" t="n">
-        <v>1662.48357412947</v>
+        <v>470.9950450626674</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>470.9950450626674</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>60.00914027305987</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>60.00914027305987</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>60.00914027305987</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>509.3247150619588</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047574</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>509.3247150619588</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>509.3247150619588</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.203741822952</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="C5" t="n">
-        <v>1689.203741822952</v>
+        <v>1328.288804049173</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.938043216202</v>
+        <v>1328.288804049173</v>
       </c>
       <c r="E5" t="n">
-        <v>945.1497906179575</v>
+        <v>942.5005514509282</v>
       </c>
       <c r="F5" t="n">
-        <v>938.204289868754</v>
+        <v>531.5146466613207</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>113.5508385595076</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>113.5508385595076</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1697.251320989584</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,46 +4649,46 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="D7" t="n">
-        <v>698.7120650600561</v>
+        <v>396.3638799638589</v>
       </c>
       <c r="E7" t="n">
-        <v>550.798971477663</v>
+        <v>248.4507863814658</v>
       </c>
       <c r="F7" t="n">
-        <v>403.9090239797526</v>
+        <v>101.5608388835555</v>
       </c>
       <c r="G7" t="n">
-        <v>234.9092237180851</v>
+        <v>101.5608388835555</v>
       </c>
       <c r="H7" t="n">
-        <v>77.1608511506152</v>
+        <v>101.5608388835555</v>
       </c>
       <c r="I7" t="n">
-        <v>77.1608511506152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1315.737983561872</v>
+        <v>1757.366513095501</v>
       </c>
       <c r="C8" t="n">
-        <v>946.7754666214607</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="D8" t="n">
-        <v>588.5097680147103</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E8" t="n">
-        <v>202.721515416466</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F8" t="n">
-        <v>195.7760146672626</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4816,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.337823625994</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477204</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653273</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7923845674169</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>538.7689125078493</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2123.296131960387</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>1754.333615019976</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1396.067916413225</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1010.279663814981</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>262.6316941403568</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>666.098807160402</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.629876389912</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449759</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216836</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.41379555613</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>3484.789894598741</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>3231.098191343892</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>2900.035304000321</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>2900.035304000321</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>2900.035304000321</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2509.895972024509</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>403.4201994324303</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>540.649797448124</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1181.195146915228</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1854.400839168011</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2316.933768979884</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.1367719529251</v>
+        <v>83.6680361265924</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>83.6680361265924</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>83.6680361265924</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>83.6680361265924</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>83.6680361265924</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>83.6680361265924</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222303</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230485</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422863</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783905</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669892</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165605</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>848.2972798983295</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>559.1451034760094</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>304.4606152701225</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>304.4606152701225</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286132</v>
+        <v>304.4606152701225</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.6859735286132</v>
+        <v>83.6680361265924</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2015.081949825207</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>1646.119432884796</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>902.0654816798008</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>491.0795768901932</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>666.0988071604017</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.629876389912</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449758</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216835</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>3454.413795556129</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.589756331029</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>3699.589756331029</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>3484.78989459874</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>3231.098191343891</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>2900.03530400032</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>2547.266648730206</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>2401.681789889329</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2401.681789889329</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>403.4201994324302</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>907.7817392985485</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653858</v>
+        <v>1253.562877620959</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1452.219619273624</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.2699138005285</v>
+        <v>242.5986401312372</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>242.5986401312372</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>242.5986401312372</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>242.5986401312372</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>242.5986401312372</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>73.99179512662059</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>175.0397247222303</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>359.8727196230485</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>565.1423203422863</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783905</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>945.0605805669892</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165605</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>848.2972798983295</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>760.0053610662151</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>760.0053610662151</v>
       </c>
       <c r="W16" t="n">
-        <v>665.685973528613</v>
+        <v>470.5881910292545</v>
       </c>
       <c r="X16" t="n">
-        <v>665.685973528613</v>
+        <v>242.5986401312372</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.9183786307682</v>
+        <v>242.5986401312372</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555221</v>
+        <v>485.5200852635886</v>
       </c>
       <c r="L18" t="n">
-        <v>891.440640161986</v>
+        <v>1099.417155020477</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441948</v>
+        <v>1406.737288300439</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471189</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1306.193495155475</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1306.193495155475</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1017.064856369034</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="20">
@@ -5743,22 +5743,22 @@
         <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>412.607977814708</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.505047571597</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M21" t="n">
-        <v>1333.825180851558</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N21" t="n">
-        <v>1663.687808515591</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O21" t="n">
-        <v>1943.227873734288</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028583</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028583</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6074,22 +6074,22 @@
         <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636248</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028583</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6372,16 +6372,16 @@
         <v>213.9110074201016</v>
       </c>
       <c r="F28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,25 +6466,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.9563154684962</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>392.0201325405893</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
         <v>392.0201325405893</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1471.267228534474</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1182.138589748032</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.804080377244</v>
+        <v>1182.138589748032</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.386910340284</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="X31" t="n">
-        <v>963.3973594422661</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.6047802987359</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>955.1031435655738</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>727.1135926675564</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.3210135240263</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.9110074201016</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>213.9110074201016</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>213.9110074201016</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>213.9110074201016</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>1228.47967581581</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.9110074201016</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="38">
@@ -7153,28 +7153,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207829</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>880.8106280646857</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.130761344647</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.99338900868</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>216.9038434870658</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C40" t="n">
-        <v>216.9038434870658</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D40" t="n">
-        <v>216.9038434870658</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E40" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>437.6964226305959</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>216.9038434870658</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>711.072954880832</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1367719529251</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
         <v>244.1070389581962</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1077.337335987485</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>788.2086972010437</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>533.5242089951569</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y43" t="n">
-        <v>726.8250614170374</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>394.223678370532</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C46" t="n">
-        <v>394.223678370532</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>367.6562405338843</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>220.766293035974</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>220.766293035974</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7842,16 +7842,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>920.3704617344999</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>692.3809108364826</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y46" t="n">
-        <v>471.5883316929525</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.233205181928483</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>306.0814314576901</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.233205181928483</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229593</v>
+        <v>167.9634363311176</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503174</v>
+        <v>199.7396287231167</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>171.2966883299262</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L39" t="n">
-        <v>85.30006332127834</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>145.9258193766928</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22713,22 +22713,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>155.7586209161641</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.91953807310952</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22956,16 +22956,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.82394329977912</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>305.13526653158</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23032,7 +23032,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23178,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23196,13 +23196,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>53.80181792333394</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>326.4048846552775</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.51827062200606</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>143.1326180792605</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>225.6020904260011</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>198.8516550143037</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.4947344032284</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="I17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>117.0896147389934</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.193711796076968e-12</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>205.1997229522956</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315997</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271363</v>
       </c>
       <c r="G28" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>194.1750094551952</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>234.2065750449764</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.6741080083347</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25128,7 +25128,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>205.9529755875458</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>48.00368395686547</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,7 +25602,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>164.2373947110939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>112.0695782210726</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>103.240973392741</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>26.60011880760489</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1011823.852443046</v>
+        <v>720539.9926437238</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1011823.852443046</v>
+        <v>720539.9926437237</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1011823.852443046</v>
+        <v>720539.9926437238</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959856.5572667964</v>
+        <v>834666.8331522868</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959856.5572667965</v>
+        <v>834666.8331522865</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667962</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667966</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>959856.5572667964</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>959856.5572667964</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667964</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253561</v>
+        <v>318067.8710173336</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="E2" t="n">
-        <v>430131.9657114797</v>
+        <v>371509.2212626561</v>
       </c>
       <c r="F2" t="n">
+        <v>371509.2212626562</v>
+      </c>
+      <c r="G2" t="n">
         <v>430131.9657114795</v>
       </c>
-      <c r="G2" t="n">
-        <v>430131.9657114797</v>
-      </c>
       <c r="H2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114795</v>
       </c>
       <c r="I2" t="n">
         <v>430131.9657114797</v>
@@ -26346,13 +26346,13 @@
         <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="N2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="O2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114799</v>
       </c>
       <c r="P2" t="n">
         <v>430131.9657114798</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>248146.7686188438</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>263762.889265909</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>62453.0558896532</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69864.88484991089</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165632.8677865244</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="C4" t="n">
-        <v>165632.8677865244</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>24740.78594361632</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>24740.78594361632</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>69171.54328360147</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>69171.54328360144</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871661</v>
@@ -26493,13 +26493,13 @@
         <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-386886.8516391221</v>
+        <v>-382452.7647401674</v>
       </c>
       <c r="C6" t="n">
-        <v>203081.0275754222</v>
+        <v>207515.114474377</v>
       </c>
       <c r="D6" t="n">
-        <v>203081.0275754222</v>
+        <v>207515.1144743768</v>
       </c>
       <c r="E6" t="n">
-        <v>-210164.5955607254</v>
+        <v>29086.1972704004</v>
       </c>
       <c r="F6" t="n">
-        <v>314995.4409161705</v>
+        <v>277232.9658892443</v>
       </c>
       <c r="G6" t="n">
-        <v>314995.4409161707</v>
+        <v>52109.68378401102</v>
       </c>
       <c r="H6" t="n">
-        <v>314995.4409161708</v>
+        <v>315872.57304992</v>
       </c>
       <c r="I6" t="n">
-        <v>314995.4409161707</v>
+        <v>315872.57304992</v>
       </c>
       <c r="J6" t="n">
-        <v>138572.2217235777</v>
+        <v>139449.3538573273</v>
       </c>
       <c r="K6" t="n">
-        <v>314995.4409161708</v>
+        <v>315872.5730499203</v>
       </c>
       <c r="L6" t="n">
-        <v>314995.4409161708</v>
+        <v>315872.5730499203</v>
       </c>
       <c r="M6" t="n">
-        <v>180194.4256823336</v>
+        <v>253419.517160267</v>
       </c>
       <c r="N6" t="n">
-        <v>314995.4409161708</v>
+        <v>315872.5730499203</v>
       </c>
       <c r="O6" t="n">
-        <v>314995.4409161708</v>
+        <v>246007.6882000095</v>
       </c>
       <c r="P6" t="n">
-        <v>314995.4409161708</v>
+        <v>315872.5730499203</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827575</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>215.7324361209778</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.9063051160355</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>250.6101663282018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>290.3162041708154</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>250.6101663282018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708154</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>250.6101663282018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708154</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>85.98948845797264</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>14.21956406210779</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>22.21426855158876</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>273.3694675023659</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>14.65885272800598</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
@@ -32241,16 +32241,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946991</v>
@@ -32265,7 +32265,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
         <v>0.2670576580354892</v>
@@ -32311,25 +32311,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458548</v>
@@ -32338,13 +32338,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,19 +32390,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
@@ -32411,22 +32411,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,46 +32466,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,43 +32545,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,43 +32627,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N22" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391274</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>407.542538404086</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517159</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730419</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513599</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233101</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588828</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312126</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>332.7559639452622</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>647.0155045122267</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>680.0057497502852</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>467.2049796079531</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>233.0438950105732</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>190.5453525391274</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>407.542538404086</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>558.3972305517159</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730419</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>633.6441091513599</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>552.6880856233101</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>433.6515619588828</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>247.6524856312126</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>332.7559639452622</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>509.4561008748669</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734254</v>
+        <v>349.2738770933444</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>200.6633754067317</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>554.9858674269925</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>428.250271192764</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>233.0438950105732</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382566</v>
+        <v>350.3150673110558</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504661</v>
@@ -35977,13 +35977,13 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P21" t="n">
-        <v>378.3901032614508</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337001</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L39" t="n">
-        <v>334.5577682773026</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37645,7 +37645,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
